--- a/po_analysis_by_asin/B083NLX6G3_po_data.xlsx
+++ b/po_analysis_by_asin/B083NLX6G3_po_data.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -514,22 +514,6 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>45088.99999999999</v>
-      </c>
-      <c r="B10" t="n">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>45095.99999999999</v>
-      </c>
-      <c r="B11" t="n">
-        <v>40</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -541,7 +525,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -593,14 +577,6 @@
         <v>90</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>45107.99999999999</v>
-      </c>
-      <c r="B6" t="n">
-        <v>110</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/po_analysis_by_asin/B083NLX6G3_po_data.xlsx
+++ b/po_analysis_by_asin/B083NLX6G3_po_data.xlsx
@@ -9,6 +9,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Weekly Quantity" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Monthly Trend" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PO Forecast" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -446,7 +447,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Requested quantity</t>
+          <t>Weekly_PO_Qty</t>
         </is>
       </c>
     </row>
@@ -541,7 +542,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Requested quantity</t>
+          <t>Monthly_PO_Qty</t>
         </is>
       </c>
     </row>
@@ -575,6 +576,271 @@
       </c>
       <c r="B5" t="n">
         <v>90</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ds</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>PO_Forecast</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>yhat_lower</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>yhat_upper</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>44969.99999999999</v>
+      </c>
+      <c r="B2" t="n">
+        <v>30</v>
+      </c>
+      <c r="C2" t="n">
+        <v>-7.772459823169845</v>
+      </c>
+      <c r="D2" t="n">
+        <v>70.68966677215519</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>44990.99999999999</v>
+      </c>
+      <c r="B3" t="n">
+        <v>33</v>
+      </c>
+      <c r="C3" t="n">
+        <v>-5.645803548387163</v>
+      </c>
+      <c r="D3" t="n">
+        <v>70.24760530526603</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>44997.99999999999</v>
+      </c>
+      <c r="B4" t="n">
+        <v>33</v>
+      </c>
+      <c r="C4" t="n">
+        <v>-5.600943435029292</v>
+      </c>
+      <c r="D4" t="n">
+        <v>72.14505758610544</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>45032.99999999999</v>
+      </c>
+      <c r="B5" t="n">
+        <v>37</v>
+      </c>
+      <c r="C5" t="n">
+        <v>-3.42618063692758</v>
+      </c>
+      <c r="D5" t="n">
+        <v>75.23559667160839</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>45039.99999999999</v>
+      </c>
+      <c r="B6" t="n">
+        <v>37</v>
+      </c>
+      <c r="C6" t="n">
+        <v>-2.763727274442256</v>
+      </c>
+      <c r="D6" t="n">
+        <v>76.63250923335282</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>45046.99999999999</v>
+      </c>
+      <c r="B7" t="n">
+        <v>38</v>
+      </c>
+      <c r="C7" t="n">
+        <v>-0.8830513601029132</v>
+      </c>
+      <c r="D7" t="n">
+        <v>78.0980241616833</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>45067.99999999999</v>
+      </c>
+      <c r="B8" t="n">
+        <v>40</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.4615694271406963</v>
+      </c>
+      <c r="D8" t="n">
+        <v>79.08048056182975</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>45081.99999999999</v>
+      </c>
+      <c r="B9" t="n">
+        <v>42</v>
+      </c>
+      <c r="C9" t="n">
+        <v>-0.2968642750519863</v>
+      </c>
+      <c r="D9" t="n">
+        <v>78.78778844252633</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>45088.99999999999</v>
+      </c>
+      <c r="B10" t="n">
+        <v>42</v>
+      </c>
+      <c r="C10" t="n">
+        <v>4.872583302021973</v>
+      </c>
+      <c r="D10" t="n">
+        <v>82.65419442252319</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>45095.99999999999</v>
+      </c>
+      <c r="B11" t="n">
+        <v>43</v>
+      </c>
+      <c r="C11" t="n">
+        <v>4.548188567941336</v>
+      </c>
+      <c r="D11" t="n">
+        <v>80.55707280048252</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>45102.99999999999</v>
+      </c>
+      <c r="B12" t="n">
+        <v>44</v>
+      </c>
+      <c r="C12" t="n">
+        <v>3.933281766994537</v>
+      </c>
+      <c r="D12" t="n">
+        <v>82.18688686950286</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>45109.99999999999</v>
+      </c>
+      <c r="B13" t="n">
+        <v>44</v>
+      </c>
+      <c r="C13" t="n">
+        <v>6.686754638595348</v>
+      </c>
+      <c r="D13" t="n">
+        <v>80.5050910070847</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>45116.99999999999</v>
+      </c>
+      <c r="B14" t="n">
+        <v>45</v>
+      </c>
+      <c r="C14" t="n">
+        <v>8.931728969343855</v>
+      </c>
+      <c r="D14" t="n">
+        <v>82.45988711127045</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>45123.99999999999</v>
+      </c>
+      <c r="B15" t="n">
+        <v>46</v>
+      </c>
+      <c r="C15" t="n">
+        <v>8.938732684477547</v>
+      </c>
+      <c r="D15" t="n">
+        <v>85.14655171706994</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>45130.99999999999</v>
+      </c>
+      <c r="B16" t="n">
+        <v>46</v>
+      </c>
+      <c r="C16" t="n">
+        <v>10.70127671662891</v>
+      </c>
+      <c r="D16" t="n">
+        <v>86.21264715973301</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>45137.99999999999</v>
+      </c>
+      <c r="B17" t="n">
+        <v>47</v>
+      </c>
+      <c r="C17" t="n">
+        <v>7.929487025140252</v>
+      </c>
+      <c r="D17" t="n">
+        <v>83.46172421707981</v>
       </c>
     </row>
   </sheetData>

--- a/po_analysis_by_asin/B083NLX6G3_po_data.xlsx
+++ b/po_analysis_by_asin/B083NLX6G3_po_data.xlsx
@@ -589,7 +589,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -608,16 +608,6 @@
           <t>PO_Forecast</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>yhat_lower</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>yhat_upper</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
@@ -626,12 +616,6 @@
       <c r="B2" t="n">
         <v>30</v>
       </c>
-      <c r="C2" t="n">
-        <v>-7.772459823169845</v>
-      </c>
-      <c r="D2" t="n">
-        <v>70.68966677215519</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
@@ -640,12 +624,6 @@
       <c r="B3" t="n">
         <v>33</v>
       </c>
-      <c r="C3" t="n">
-        <v>-5.645803548387163</v>
-      </c>
-      <c r="D3" t="n">
-        <v>70.24760530526603</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
@@ -654,12 +632,6 @@
       <c r="B4" t="n">
         <v>33</v>
       </c>
-      <c r="C4" t="n">
-        <v>-5.600943435029292</v>
-      </c>
-      <c r="D4" t="n">
-        <v>72.14505758610544</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
@@ -668,12 +640,6 @@
       <c r="B5" t="n">
         <v>37</v>
       </c>
-      <c r="C5" t="n">
-        <v>-3.42618063692758</v>
-      </c>
-      <c r="D5" t="n">
-        <v>75.23559667160839</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
@@ -682,12 +648,6 @@
       <c r="B6" t="n">
         <v>37</v>
       </c>
-      <c r="C6" t="n">
-        <v>-2.763727274442256</v>
-      </c>
-      <c r="D6" t="n">
-        <v>76.63250923335282</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
@@ -696,12 +656,6 @@
       <c r="B7" t="n">
         <v>38</v>
       </c>
-      <c r="C7" t="n">
-        <v>-0.8830513601029132</v>
-      </c>
-      <c r="D7" t="n">
-        <v>78.0980241616833</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
@@ -710,12 +664,6 @@
       <c r="B8" t="n">
         <v>40</v>
       </c>
-      <c r="C8" t="n">
-        <v>0.4615694271406963</v>
-      </c>
-      <c r="D8" t="n">
-        <v>79.08048056182975</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
@@ -724,12 +672,6 @@
       <c r="B9" t="n">
         <v>42</v>
       </c>
-      <c r="C9" t="n">
-        <v>-0.2968642750519863</v>
-      </c>
-      <c r="D9" t="n">
-        <v>78.78778844252633</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
@@ -738,12 +680,6 @@
       <c r="B10" t="n">
         <v>42</v>
       </c>
-      <c r="C10" t="n">
-        <v>4.872583302021973</v>
-      </c>
-      <c r="D10" t="n">
-        <v>82.65419442252319</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
@@ -752,12 +688,6 @@
       <c r="B11" t="n">
         <v>43</v>
       </c>
-      <c r="C11" t="n">
-        <v>4.548188567941336</v>
-      </c>
-      <c r="D11" t="n">
-        <v>80.55707280048252</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
@@ -766,12 +696,6 @@
       <c r="B12" t="n">
         <v>44</v>
       </c>
-      <c r="C12" t="n">
-        <v>3.933281766994537</v>
-      </c>
-      <c r="D12" t="n">
-        <v>82.18688686950286</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
@@ -780,12 +704,6 @@
       <c r="B13" t="n">
         <v>44</v>
       </c>
-      <c r="C13" t="n">
-        <v>6.686754638595348</v>
-      </c>
-      <c r="D13" t="n">
-        <v>80.5050910070847</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
@@ -794,12 +712,6 @@
       <c r="B14" t="n">
         <v>45</v>
       </c>
-      <c r="C14" t="n">
-        <v>8.931728969343855</v>
-      </c>
-      <c r="D14" t="n">
-        <v>82.45988711127045</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
@@ -808,12 +720,6 @@
       <c r="B15" t="n">
         <v>46</v>
       </c>
-      <c r="C15" t="n">
-        <v>8.938732684477547</v>
-      </c>
-      <c r="D15" t="n">
-        <v>85.14655171706994</v>
-      </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
@@ -822,12 +728,6 @@
       <c r="B16" t="n">
         <v>46</v>
       </c>
-      <c r="C16" t="n">
-        <v>10.70127671662891</v>
-      </c>
-      <c r="D16" t="n">
-        <v>86.21264715973301</v>
-      </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
@@ -835,12 +735,6 @@
       </c>
       <c r="B17" t="n">
         <v>47</v>
-      </c>
-      <c r="C17" t="n">
-        <v>7.929487025140252</v>
-      </c>
-      <c r="D17" t="n">
-        <v>83.46172421707981</v>
       </c>
     </row>
   </sheetData>
